--- a/PCAcombined_predicted_factors_matrix_9.xlsx
+++ b/PCAcombined_predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,31 +440,13 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.1259293245412462</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1608990661753376</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05792248787611325</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.01928845833029415</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.07141586204917988</v>
+        <v>0.1609186568539449</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +454,7 @@
         <v>0.3022807704952351</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2078112564096955</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1219889146748708</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07319653776692327</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.05148083269936424</v>
+        <v>0.2078365590023842</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +462,7 @@
         <v>1.037068626792313</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7104721726630034</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.3639648387717511</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.2129544906543049</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.1345711478689795</v>
+        <v>-0.7105586780251875</v>
       </c>
     </row>
     <row r="5">
@@ -506,16 +470,7 @@
         <v>0.4951002115025815</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2844174920149474</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1431514926038855</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06460532100798036</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.02421555098778886</v>
+        <v>0.284452121996395</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +478,7 @@
         <v>-0.5452607924834646</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2654160244715343</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.03290541417247699</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01041365488774283</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01821806612681862</v>
+        <v>-0.265448340880549</v>
       </c>
     </row>
     <row r="7">
@@ -540,16 +486,7 @@
         <v>0.1545661505357391</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1254983986689352</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.04188223580918178</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.009216333205599574</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.003352705747033469</v>
+        <v>0.1255136790484468</v>
       </c>
     </row>
     <row r="8">
@@ -557,16 +494,7 @@
         <v>0.07451919555167091</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04026059219228525</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08171921938236434</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0500764706913393</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.02423768635292129</v>
+        <v>0.04026549422398219</v>
       </c>
     </row>
     <row r="9">
@@ -574,16 +502,7 @@
         <v>0.2390472118935626</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1258280853055759</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03835587744310438</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.009714139083288246</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.002699693130408762</v>
+        <v>0.1258434058269286</v>
       </c>
     </row>
     <row r="10">
@@ -591,16 +510,7 @@
         <v>0.01361102537781972</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01162390427799341</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.003979705879718106</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.003652365083120948</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.004406600743357788</v>
+        <v>0.0116253195762811</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_factors_matrix_9.xlsx
+++ b/PCAcombined_predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,12 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +454,12 @@
       <c r="B2" t="n">
         <v>0.1609186568539449</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.1467674040079619</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1214784970543944</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +468,12 @@
       <c r="B3" t="n">
         <v>0.2078365590023842</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.1409493951423519</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09561117936728926</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +482,12 @@
       <c r="B4" t="n">
         <v>-0.7105586780251875</v>
       </c>
+      <c r="C4" t="n">
+        <v>-0.4884615788970204</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.3325153412248407</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +496,12 @@
       <c r="B5" t="n">
         <v>0.284452121996395</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.1820002490835655</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1210004433685154</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +510,12 @@
       <c r="B6" t="n">
         <v>-0.265448340880549</v>
       </c>
+      <c r="C6" t="n">
+        <v>-0.1559510298485472</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.09840395984045176</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +524,12 @@
       <c r="B7" t="n">
         <v>0.1255136790484468</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.09173664142138098</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06316098509836436</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +538,12 @@
       <c r="B8" t="n">
         <v>0.04026549422398219</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.02376894763271612</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01326127797674162</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +552,12 @@
       <c r="B9" t="n">
         <v>0.1258434058269286</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.07492190515116694</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.045850335613528</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -511,6 +565,12 @@
       </c>
       <c r="B10" t="n">
         <v>0.0116253195762811</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01164630622877684</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.009684705874858025</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_factors_matrix_9.xlsx
+++ b/PCAcombined_predicted_factors_matrix_9.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\04. Models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172687B0-F15F-4DAE-A108-D164C5999727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-49890" yWindow="-3675" windowWidth="29385" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +52,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,157 +376,1444 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>0.1259293245412462</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.1609186568539449</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1467674040079619</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1214784970543944</v>
+      <c r="B2">
+        <v>0.16091865685394491</v>
+      </c>
+      <c r="C2">
+        <v>0.14779080117659921</v>
+      </c>
+      <c r="D2">
+        <v>0.1247768610155327</v>
+      </c>
+      <c r="E2">
+        <v>9.9214112399966886E-2</v>
+      </c>
+      <c r="F2">
+        <v>7.2958632636081655E-2</v>
+      </c>
+      <c r="G2">
+        <v>4.6554743643112219E-2</v>
+      </c>
+      <c r="H2">
+        <v>2.0231453722145781E-2</v>
+      </c>
+      <c r="I2">
+        <v>-5.8681894399612959E-3</v>
+      </c>
+      <c r="J2">
+        <v>-3.1637572884378268E-2</v>
+      </c>
+      <c r="K2">
+        <v>-5.6995722495928082E-2</v>
+      </c>
+      <c r="L2">
+        <v>-8.1883206109294587E-2</v>
+      </c>
+      <c r="M2">
+        <v>-0.1062585835303697</v>
+      </c>
+      <c r="N2">
+        <v>-0.1300948344716456</v>
+      </c>
+      <c r="O2">
+        <v>-0.1533760596816561</v>
+      </c>
+      <c r="P2">
+        <v>-0.17609467632504469</v>
+      </c>
+      <c r="Q2">
+        <v>-0.19824916782636759</v>
+      </c>
+      <c r="R2">
+        <v>-0.2198423487826642</v>
+      </c>
+      <c r="S2">
+        <v>-0.24088006375414489</v>
+      </c>
+      <c r="T2">
+        <v>-0.26137023096902501</v>
+      </c>
+      <c r="U2">
+        <v>-0.28132215019898382</v>
+      </c>
+      <c r="V2">
+        <v>-0.3007460078962062</v>
+      </c>
+      <c r="W2">
+        <v>-0.31965252698715202</v>
+      </c>
+      <c r="X2">
+        <v>-0.33805272132848629</v>
+      </c>
+      <c r="Y2">
+        <v>-0.3559577251042525</v>
+      </c>
+      <c r="Z2">
+        <v>-0.37337867543591308</v>
+      </c>
+      <c r="AA2">
+        <v>-0.3903266325126325</v>
+      </c>
+      <c r="AB2">
+        <v>-0.40681252601508539</v>
+      </c>
+      <c r="AC2">
+        <v>-0.42284711986196077</v>
+      </c>
+      <c r="AD2">
+        <v>-0.43844098965597689</v>
+      </c>
+      <c r="AE2">
+        <v>-0.45360450888412363</v>
+      </c>
+      <c r="AF2">
+        <v>-0.46834784111775202</v>
+      </c>
+      <c r="AG2">
+        <v>-0.48268093629830511</v>
+      </c>
+      <c r="AH2">
+        <v>-0.49661352978417628</v>
+      </c>
+      <c r="AI2">
+        <v>-0.5101551432460768</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.52331508678491256</v>
+      </c>
+      <c r="AK2">
+        <v>-0.53610246184456578</v>
+      </c>
+      <c r="AL2">
+        <v>-0.54852616462900394</v>
+      </c>
+      <c r="AM2">
+        <v>-0.5605948898271973</v>
+      </c>
+      <c r="AN2">
+        <v>-0.57231713451374178</v>
+      </c>
+      <c r="AO2">
+        <v>-0.58370120213696464</v>
+      </c>
+      <c r="AP2">
+        <v>-0.59475520653609004</v>
+      </c>
+      <c r="AQ2">
+        <v>-0.60548707594912055</v>
+      </c>
+      <c r="AR2">
+        <v>-0.6159045569866155</v>
+      </c>
+      <c r="AS2">
+        <v>-0.62601521855554088</v>
+      </c>
+      <c r="AT2">
+        <v>-0.63582645572339846</v>
+      </c>
+      <c r="AU2">
+        <v>-0.64534549351672621</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.3022807704952351</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.2078365590023842</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1409493951423519</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09561117936728926</v>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.30228077049523511</v>
+      </c>
+      <c r="B3">
+        <v>0.20783655900238421</v>
+      </c>
+      <c r="C3">
+        <v>0.14080538326984621</v>
+      </c>
+      <c r="D3">
+        <v>9.5154769050055529E-2</v>
+      </c>
+      <c r="E3">
+        <v>6.5826931322977442E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.7672638760894823E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.6921784332175148E-2</v>
+      </c>
+      <c r="H3">
+        <v>3.1030458919604171E-2</v>
+      </c>
+      <c r="I3">
+        <v>2.8321126087974189E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.7692039256451341E-2</v>
+      </c>
+      <c r="K3">
+        <v>2.8418029068004759E-2</v>
+      </c>
+      <c r="L3">
+        <v>3.0019963222032139E-2</v>
+      </c>
+      <c r="M3">
+        <v>3.2180084820144221E-2</v>
+      </c>
+      <c r="N3">
+        <v>3.4687022557215882E-2</v>
+      </c>
+      <c r="O3">
+        <v>3.7399885483522202E-2</v>
+      </c>
+      <c r="P3">
+        <v>4.0224678633583838E-2</v>
+      </c>
+      <c r="Q3">
+        <v>4.3098724909320513E-2</v>
+      </c>
+      <c r="R3">
+        <v>4.5980325118006822E-2</v>
+      </c>
+      <c r="S3">
+        <v>4.8841866493143059E-2</v>
+      </c>
+      <c r="T3">
+        <v>5.1665213696374078E-2</v>
+      </c>
+      <c r="U3">
+        <v>5.4438617380135973E-2</v>
+      </c>
+      <c r="V3">
+        <v>5.7154635540259652E-2</v>
+      </c>
+      <c r="W3">
+        <v>5.9808732911924983E-2</v>
+      </c>
+      <c r="X3">
+        <v>6.2398335505809789E-2</v>
+      </c>
+      <c r="Y3">
+        <v>6.4922191351301381E-2</v>
+      </c>
+      <c r="Z3">
+        <v>6.737993765440331E-2</v>
+      </c>
+      <c r="AA3">
+        <v>6.9771807344072179E-2</v>
+      </c>
+      <c r="AB3">
+        <v>7.2098429895176716E-2</v>
+      </c>
+      <c r="AC3">
+        <v>7.4360696010686497E-2</v>
+      </c>
+      <c r="AD3">
+        <v>7.655966561997489E-2</v>
+      </c>
+      <c r="AE3">
+        <v>7.8696505298139832E-2</v>
+      </c>
+      <c r="AF3">
+        <v>8.0772445694462458E-2</v>
+      </c>
+      <c r="AG3">
+        <v>8.2788752586193851E-2</v>
+      </c>
+      <c r="AH3">
+        <v>8.4746707221926107E-2</v>
+      </c>
+      <c r="AI3">
+        <v>8.6647593005945128E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>8.849268651568086E-2</v>
+      </c>
+      <c r="AK3">
+        <v>9.0283251483174801E-2</v>
+      </c>
+      <c r="AL3">
+        <v>9.2020534805831736E-2</v>
+      </c>
+      <c r="AM3">
+        <v>9.3705763947436682E-2</v>
+      </c>
+      <c r="AN3">
+        <v>9.5340145291996317E-2</v>
+      </c>
+      <c r="AO3">
+        <v>9.6924863150599144E-2</v>
+      </c>
+      <c r="AP3">
+        <v>9.8461079215533751E-2</v>
+      </c>
+      <c r="AQ3">
+        <v>9.9949932320300014E-2</v>
+      </c>
+      <c r="AR3">
+        <v>0.10139253840829029</v>
+      </c>
+      <c r="AS3">
+        <v>0.1027899906431988</v>
+      </c>
+      <c r="AT3">
+        <v>0.1041433596150422</v>
+      </c>
+      <c r="AU3">
+        <v>0.10545369361000349</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1.037068626792313</v>
       </c>
-      <c r="B4" t="n">
-        <v>-0.7105586780251875</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.4884615788970204</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.3325153412248407</v>
+      <c r="B4">
+        <v>-0.71055867802518746</v>
+      </c>
+      <c r="C4">
+        <v>-0.48826453590126068</v>
+      </c>
+      <c r="D4">
+        <v>-0.33196120130727819</v>
+      </c>
+      <c r="E4">
+        <v>-0.22444275895976379</v>
+      </c>
+      <c r="F4">
+        <v>-0.15103026279682841</v>
+      </c>
+      <c r="G4">
+        <v>-0.1010611985597622</v>
+      </c>
+      <c r="H4">
+        <v>-6.7110298296655616E-2</v>
+      </c>
+      <c r="I4">
+        <v>-4.4077510733627742E-2</v>
+      </c>
+      <c r="J4">
+        <v>-2.8477941206692729E-2</v>
+      </c>
+      <c r="K4">
+        <v>-1.7935664719062581E-2</v>
+      </c>
+      <c r="L4">
+        <v>-1.0832648245780931E-2</v>
+      </c>
+      <c r="M4">
+        <v>-6.0676912471473738E-3</v>
+      </c>
+      <c r="N4">
+        <v>-2.8916204295476571E-3</v>
+      </c>
+      <c r="O4">
+        <v>-7.9486498350481226E-4</v>
+      </c>
+      <c r="P4">
+        <v>5.6913623507482683E-4</v>
+      </c>
+      <c r="Q4">
+        <v>1.436072386115324E-3</v>
+      </c>
+      <c r="R4">
+        <v>1.9662321316968501E-3</v>
+      </c>
+      <c r="S4">
+        <v>2.2686282374891351E-3</v>
+      </c>
+      <c r="T4">
+        <v>2.4174019704118941E-3</v>
+      </c>
+      <c r="U4">
+        <v>2.4629770812772608E-3</v>
+      </c>
+      <c r="V4">
+        <v>2.4396439571254779E-3</v>
+      </c>
+      <c r="W4">
+        <v>2.3707168907937041E-3</v>
+      </c>
+      <c r="X4">
+        <v>2.2720415116628829E-3</v>
+      </c>
+      <c r="Y4">
+        <v>2.1543805622225229E-3</v>
+      </c>
+      <c r="Z4">
+        <v>2.0250370235270041E-3</v>
+      </c>
+      <c r="AA4">
+        <v>1.888958607480802E-3</v>
+      </c>
+      <c r="AB4">
+        <v>1.749489492531823E-3</v>
+      </c>
+      <c r="AC4">
+        <v>1.608882077132385E-3</v>
+      </c>
+      <c r="AD4">
+        <v>1.468645436207626E-3</v>
+      </c>
+      <c r="AE4">
+        <v>1.3297826363034219E-3</v>
+      </c>
+      <c r="AF4">
+        <v>1.192952389630615E-3</v>
+      </c>
+      <c r="AG4">
+        <v>1.0585791888975671E-3</v>
+      </c>
+      <c r="AH4">
+        <v>9.2692835370757011E-4</v>
+      </c>
+      <c r="AI4">
+        <v>7.9815717385839846E-4</v>
+      </c>
+      <c r="AJ4">
+        <v>6.7234976584576054E-4</v>
+      </c>
+      <c r="AK4">
+        <v>5.4954082982455353E-4</v>
+      </c>
+      <c r="AL4">
+        <v>4.2973184076087811E-4</v>
+      </c>
+      <c r="AM4">
+        <v>3.1290208162341099E-4</v>
+      </c>
+      <c r="AN4">
+        <v>1.9901615958564531E-4</v>
+      </c>
+      <c r="AO4">
+        <v>8.8029123874182281E-5</v>
+      </c>
+      <c r="AP4">
+        <v>-2.011005208090604E-5</v>
+      </c>
+      <c r="AQ4">
+        <v>-1.254561041223376E-4</v>
+      </c>
+      <c r="AR4">
+        <v>-2.280658717598971E-4</v>
+      </c>
+      <c r="AS4">
+        <v>-3.2799721153442708E-4</v>
+      </c>
+      <c r="AT4">
+        <v>-4.2530826429360008E-4</v>
+      </c>
+      <c r="AU4">
+        <v>-5.2005696376931638E-4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.4951002115025815</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.284452121996395</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1820002490835655</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1210004433685154</v>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.49510021150258149</v>
+      </c>
+      <c r="B5">
+        <v>0.28445212199639502</v>
+      </c>
+      <c r="C5">
+        <v>0.1819737263395573</v>
+      </c>
+      <c r="D5">
+        <v>0.1209307145788716</v>
+      </c>
+      <c r="E5">
+        <v>8.2235789027658213E-2</v>
+      </c>
+      <c r="F5">
+        <v>5.6798238530850559E-2</v>
+      </c>
+      <c r="G5">
+        <v>3.9682049641696353E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.7962672042390981E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.981348208256753E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.405672300872063E-2</v>
+      </c>
+      <c r="K5">
+        <v>9.9177499657141874E-3</v>
+      </c>
+      <c r="L5">
+        <v>6.8803865877162052E-3</v>
+      </c>
+      <c r="M5">
+        <v>4.5976266739850688E-3</v>
+      </c>
+      <c r="N5">
+        <v>2.8347326687456508E-3</v>
+      </c>
+      <c r="O5">
+        <v>1.4321923482851829E-3</v>
+      </c>
+      <c r="P5">
+        <v>2.8124200445970909E-4</v>
+      </c>
+      <c r="Q5">
+        <v>-6.9247820956394547E-4</v>
+      </c>
+      <c r="R5">
+        <v>-1.539921623218432E-3</v>
+      </c>
+      <c r="S5">
+        <v>-2.296075382624363E-3</v>
+      </c>
+      <c r="T5">
+        <v>-2.9850146000218502E-3</v>
+      </c>
+      <c r="U5">
+        <v>-3.6233457733335838E-3</v>
+      </c>
+      <c r="V5">
+        <v>-4.2225579222347374E-3</v>
+      </c>
+      <c r="W5">
+        <v>-4.790630494418001E-3</v>
+      </c>
+      <c r="X5">
+        <v>-5.333134278853729E-3</v>
+      </c>
+      <c r="Y5">
+        <v>-5.8539858327181131E-3</v>
+      </c>
+      <c r="Z5">
+        <v>-6.3559647914844218E-3</v>
+      </c>
+      <c r="AA5">
+        <v>-6.8410687472004062E-3</v>
+      </c>
+      <c r="AB5">
+        <v>-7.3107567761947273E-3</v>
+      </c>
+      <c r="AC5">
+        <v>-7.766116594442536E-3</v>
+      </c>
+      <c r="AD5">
+        <v>-8.2079793126091042E-3</v>
+      </c>
+      <c r="AE5">
+        <v>-8.6369982298970249E-3</v>
+      </c>
+      <c r="AF5">
+        <v>-9.053702944924755E-3</v>
+      </c>
+      <c r="AG5">
+        <v>-9.4585365234559054E-3</v>
+      </c>
+      <c r="AH5">
+        <v>-9.8518810355384609E-3</v>
+      </c>
+      <c r="AI5">
+        <v>-1.023407510896189E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>-1.060542600258617E-2</v>
+      </c>
+      <c r="AK5">
+        <v>-1.096621791825079E-2</v>
+      </c>
+      <c r="AL5">
+        <v>-1.1316717731042709E-2</v>
+      </c>
+      <c r="AM5">
+        <v>-1.165717894775473E-2</v>
+      </c>
+      <c r="AN5">
+        <v>-1.198784444932828E-2</v>
+      </c>
+      <c r="AO5">
+        <v>-1.230894839869401E-2</v>
+      </c>
+      <c r="AP5">
+        <v>-1.26207175757218E-2</v>
+      </c>
+      <c r="AQ5">
+        <v>-1.292337231881405E-2</v>
+      </c>
+      <c r="AR5">
+        <v>-1.3217127196299911E-2</v>
+      </c>
+      <c r="AS5">
+        <v>-1.350219149210846E-2</v>
+      </c>
+      <c r="AT5">
+        <v>-1.3778769563634011E-2</v>
+      </c>
+      <c r="AU5">
+        <v>-1.4047061111521359E-2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>-0.5452607924834646</v>
       </c>
-      <c r="B6" t="n">
-        <v>-0.265448340880549</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.1559510298485472</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.09840395984045176</v>
+      <c r="B6">
+        <v>-0.26544834088054903</v>
+      </c>
+      <c r="C6">
+        <v>-0.15590933779815569</v>
+      </c>
+      <c r="D6">
+        <v>-9.8287697535490409E-2</v>
+      </c>
+      <c r="E6">
+        <v>-6.365754040947523E-2</v>
+      </c>
+      <c r="F6">
+        <v>-4.1459782544144008E-2</v>
+      </c>
+      <c r="G6">
+        <v>-2.6832206180509788E-2</v>
+      </c>
+      <c r="H6">
+        <v>-1.708467715539487E-2</v>
+      </c>
+      <c r="I6">
+        <v>-1.056298581357195E-2</v>
+      </c>
+      <c r="J6">
+        <v>-6.1975641737310816E-3</v>
+      </c>
+      <c r="K6">
+        <v>-3.2811912650134978E-3</v>
+      </c>
+      <c r="L6">
+        <v>-1.3413665200539371E-3</v>
+      </c>
+      <c r="M6">
+        <v>-6.0722421850580542E-5</v>
+      </c>
+      <c r="N6">
+        <v>7.7457838295022659E-4</v>
+      </c>
+      <c r="O6">
+        <v>1.3089163475402379E-3</v>
+      </c>
+      <c r="P6">
+        <v>1.6399218448265339E-3</v>
+      </c>
+      <c r="Q6">
+        <v>1.833687473643009E-3</v>
+      </c>
+      <c r="R6">
+        <v>1.9349944804172201E-3</v>
+      </c>
+      <c r="S6">
+        <v>1.9742042365705321E-3</v>
+      </c>
+      <c r="T6">
+        <v>1.971910898476936E-3</v>
+      </c>
+      <c r="U6">
+        <v>1.942087111816313E-3</v>
+      </c>
+      <c r="V6">
+        <v>1.894213327220241E-3</v>
+      </c>
+      <c r="W6">
+        <v>1.8347205083803369E-3</v>
+      </c>
+      <c r="X6">
+        <v>1.767968419955371E-3</v>
+      </c>
+      <c r="Y6">
+        <v>1.696909453957271E-3</v>
+      </c>
+      <c r="Z6">
+        <v>1.6235393465120691E-3</v>
+      </c>
+      <c r="AA6">
+        <v>1.5492033634516181E-3</v>
+      </c>
+      <c r="AB6">
+        <v>1.4748044013998449E-3</v>
+      </c>
+      <c r="AC6">
+        <v>1.4009444868602009E-3</v>
+      </c>
+      <c r="AD6">
+        <v>1.3280210275034439E-3</v>
+      </c>
+      <c r="AE6">
+        <v>1.2562923087240539E-3</v>
+      </c>
+      <c r="AF6">
+        <v>1.185922077237009E-3</v>
+      </c>
+      <c r="AG6">
+        <v>1.11700989822858E-3</v>
+      </c>
+      <c r="AH6">
+        <v>1.049611830966935E-3</v>
+      </c>
+      <c r="AI6">
+        <v>9.8375451340553585E-4</v>
+      </c>
+      <c r="AJ6">
+        <v>9.1944475820538189E-4</v>
+      </c>
+      <c r="AK6">
+        <v>8.5667609095156486E-4</v>
+      </c>
+      <c r="AL6">
+        <v>7.9543320461572162E-4</v>
+      </c>
+      <c r="AM6">
+        <v>7.3569499363271111E-4</v>
+      </c>
+      <c r="AN6">
+        <v>6.7743661951083067E-4</v>
+      </c>
+      <c r="AO6">
+        <v>6.2063091596438881E-4</v>
+      </c>
+      <c r="AP6">
+        <v>5.6524934351688517E-4</v>
+      </c>
+      <c r="AQ6">
+        <v>5.112626367502187E-4</v>
+      </c>
+      <c r="AR6">
+        <v>4.5864124185458478E-4</v>
+      </c>
+      <c r="AS6">
+        <v>4.0735561111756641E-4</v>
+      </c>
+      <c r="AT6">
+        <v>3.5737639981778041E-4</v>
+      </c>
+      <c r="AU6">
+        <v>3.0867459656971821E-4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.1545661505357391</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1255136790484468</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09173664142138098</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.06316098509836436</v>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.15456615053573911</v>
+      </c>
+      <c r="B7">
+        <v>0.12551367904844679</v>
+      </c>
+      <c r="C7">
+        <v>9.175588749903546E-2</v>
+      </c>
+      <c r="D7">
+        <v>6.3209596012869365E-2</v>
+      </c>
+      <c r="E7">
+        <v>4.2670234169003098E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.857670793941515E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.905744527878258E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.2665462359086031E-2</v>
+      </c>
+      <c r="I7">
+        <v>8.3876773278351979E-3</v>
+      </c>
+      <c r="J7">
+        <v>5.5354680962359376E-3</v>
+      </c>
+      <c r="K7">
+        <v>3.6446376587761921E-3</v>
+      </c>
+      <c r="L7">
+        <v>2.4026606297397608E-3</v>
+      </c>
+      <c r="M7">
+        <v>1.5989069678718261E-3</v>
+      </c>
+      <c r="N7">
+        <v>1.091190077811734E-3</v>
+      </c>
+      <c r="O7">
+        <v>7.8337288946496008E-4</v>
+      </c>
+      <c r="P7">
+        <v>6.1036437101877014E-4</v>
+      </c>
+      <c r="Q7">
+        <v>5.2804505842868538E-4</v>
+      </c>
+      <c r="R7">
+        <v>5.0648569142336159E-4</v>
+      </c>
+      <c r="S7">
+        <v>5.2537220895525476E-4</v>
+      </c>
+      <c r="T7">
+        <v>5.7091326451673397E-4</v>
+      </c>
+      <c r="U7">
+        <v>6.3374648061554934E-4</v>
+      </c>
+      <c r="V7">
+        <v>7.0751901776954298E-4</v>
+      </c>
+      <c r="W7">
+        <v>7.8792425043760236E-4</v>
+      </c>
+      <c r="X7">
+        <v>8.7204741493794829E-4</v>
+      </c>
+      <c r="Y7">
+        <v>9.5792081258764205E-4</v>
+      </c>
+      <c r="Z7">
+        <v>1.044221280527907E-3</v>
+      </c>
+      <c r="AA7">
+        <v>1.1300643264365231E-3</v>
+      </c>
+      <c r="AB7">
+        <v>1.21486398513272E-3</v>
+      </c>
+      <c r="AC7">
+        <v>1.2982373842302219E-3</v>
+      </c>
+      <c r="AD7">
+        <v>1.379939738311335E-3</v>
+      </c>
+      <c r="AE7">
+        <v>1.4598200605485201E-3</v>
+      </c>
+      <c r="AF7">
+        <v>1.537790984602363E-3</v>
+      </c>
+      <c r="AG7">
+        <v>1.6138081995199229E-3</v>
+      </c>
+      <c r="AH7">
+        <v>1.687856435314496E-3</v>
+      </c>
+      <c r="AI7">
+        <v>1.759939913379014E-3</v>
+      </c>
+      <c r="AJ7">
+        <v>1.8300758405499779E-3</v>
+      </c>
+      <c r="AK7">
+        <v>1.8982899783150571E-3</v>
+      </c>
+      <c r="AL7">
+        <v>1.964613626960896E-3</v>
+      </c>
+      <c r="AM7">
+        <v>2.02908157457424E-3</v>
+      </c>
+      <c r="AN7">
+        <v>2.0917307039828E-3</v>
+      </c>
+      <c r="AO7">
+        <v>2.1525990483318869E-3</v>
+      </c>
+      <c r="AP7">
+        <v>2.211725152550924E-3</v>
+      </c>
+      <c r="AQ7">
+        <v>2.269147643334342E-3</v>
+      </c>
+      <c r="AR7">
+        <v>2.3249049412240571E-3</v>
+      </c>
+      <c r="AS7">
+        <v>2.379035069493214E-3</v>
+      </c>
+      <c r="AT7">
+        <v>2.431575528921709E-3</v>
+      </c>
+      <c r="AU7">
+        <v>2.4825632173943908E-3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.07451919555167091</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.04026549422398219</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02376894763271612</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.01326127797674162</v>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7.4519195551670914E-2</v>
+      </c>
+      <c r="B8">
+        <v>4.0265494223982193E-2</v>
+      </c>
+      <c r="C8">
+        <v>2.379941563012038E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.335486137282851E-2</v>
+      </c>
+      <c r="E8">
+        <v>7.4572466179349513E-3</v>
+      </c>
+      <c r="F8">
+        <v>4.1772492167016784E-3</v>
+      </c>
+      <c r="G8">
+        <v>2.31975086117601E-3</v>
+      </c>
+      <c r="H8">
+        <v>1.234690253499491E-3</v>
+      </c>
+      <c r="I8">
+        <v>5.7735767879529712E-4</v>
+      </c>
+      <c r="J8">
+        <v>1.6331288415921241E-4</v>
+      </c>
+      <c r="K8">
+        <v>-1.083311471955904E-4</v>
+      </c>
+      <c r="L8">
+        <v>-2.9425071535202108E-4</v>
+      </c>
+      <c r="M8">
+        <v>-4.2717573724486841E-4</v>
+      </c>
+      <c r="N8">
+        <v>-5.2651831309005683E-4</v>
+      </c>
+      <c r="O8">
+        <v>-6.0408070941872483E-4</v>
+      </c>
+      <c r="P8">
+        <v>-6.6720062512758041E-4</v>
+      </c>
+      <c r="Q8">
+        <v>-7.2053044901716973E-4</v>
+      </c>
+      <c r="R8">
+        <v>-7.6707024632543511E-4</v>
+      </c>
+      <c r="S8">
+        <v>-8.0878263956681701E-4</v>
+      </c>
+      <c r="T8">
+        <v>-8.4696744539095709E-4</v>
+      </c>
+      <c r="U8">
+        <v>-8.8249480179655292E-4</v>
+      </c>
+      <c r="V8">
+        <v>-9.1595294671632528E-4</v>
+      </c>
+      <c r="W8">
+        <v>-9.4774338117144827E-4</v>
+      </c>
+      <c r="X8">
+        <v>-9.781429546343247E-4</v>
+      </c>
+      <c r="Y8">
+        <v>-1.0073447993433769E-3</v>
+      </c>
+      <c r="Z8">
+        <v>-1.0354855454767929E-3</v>
+      </c>
+      <c r="AA8">
+        <v>-1.062663533039335E-3</v>
+      </c>
+      <c r="AB8">
+        <v>-1.0889510597290931E-3</v>
+      </c>
+      <c r="AC8">
+        <v>-1.114402648950491E-3</v>
+      </c>
+      <c r="AD8">
+        <v>-1.1390606469481759E-3</v>
+      </c>
+      <c r="AE8">
+        <v>-1.1629590198273629E-3</v>
+      </c>
+      <c r="AF8">
+        <v>-1.1861259334236679E-3</v>
+      </c>
+      <c r="AG8">
+        <v>-1.208585508289655E-3</v>
+      </c>
+      <c r="AH8">
+        <v>-1.2303590146968591E-3</v>
+      </c>
+      <c r="AI8">
+        <v>-1.2514656870570261E-3</v>
+      </c>
+      <c r="AJ8">
+        <v>-1.271923279488354E-3</v>
+      </c>
+      <c r="AK8">
+        <v>-1.2917484452493421E-3</v>
+      </c>
+      <c r="AL8">
+        <v>-1.3109569962988161E-3</v>
+      </c>
+      <c r="AM8">
+        <v>-1.329564081272298E-3</v>
+      </c>
+      <c r="AN8">
+        <v>-1.3475843079346619E-3</v>
+      </c>
+      <c r="AO8">
+        <v>-1.3650318278590221E-3</v>
+      </c>
+      <c r="AP8">
+        <v>-1.3819203954049031E-3</v>
+      </c>
+      <c r="AQ8">
+        <v>-1.398263409219187E-3</v>
+      </c>
+      <c r="AR8">
+        <v>-1.4140739418559321E-3</v>
+      </c>
+      <c r="AS8">
+        <v>-1.429364761303793E-3</v>
+      </c>
+      <c r="AT8">
+        <v>-1.444148347024184E-3</v>
+      </c>
+      <c r="AU8">
+        <v>-1.458436902239864E-3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.2390472118935626</v>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.23904721189356259</v>
+      </c>
+      <c r="B9">
         <v>0.1258434058269286</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.07492190515116694</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.045850335613528</v>
+      <c r="C9">
+        <v>7.4900308089567949E-2</v>
+      </c>
+      <c r="D9">
+        <v>4.5797063569361383E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.8041641206737199E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.684589469077824E-2</v>
+      </c>
+      <c r="G9">
+        <v>9.6575443222070186E-3</v>
+      </c>
+      <c r="H9">
+        <v>4.9964812454691898E-3</v>
+      </c>
+      <c r="I9">
+        <v>1.9621535396945129E-3</v>
+      </c>
+      <c r="J9">
+        <v>-1.044388027826755E-5</v>
+      </c>
+      <c r="K9">
+        <v>-1.2834032165248211E-3</v>
+      </c>
+      <c r="L9">
+        <v>-2.0923242284153609E-3</v>
+      </c>
+      <c r="M9">
+        <v>-2.5921880699432708E-3</v>
+      </c>
+      <c r="N9">
+        <v>-2.8857523473252381E-3</v>
+      </c>
+      <c r="O9">
+        <v>-3.0415395289171399E-3</v>
+      </c>
+      <c r="P9">
+        <v>-3.1054324460869881E-3</v>
+      </c>
+      <c r="Q9">
+        <v>-3.108245924727247E-3</v>
+      </c>
+      <c r="R9">
+        <v>-3.0707183417297041E-3</v>
+      </c>
+      <c r="S9">
+        <v>-3.0068256687354961E-3</v>
+      </c>
+      <c r="T9">
+        <v>-2.9259934242475169E-3</v>
+      </c>
+      <c r="U9">
+        <v>-2.834578917478384E-3</v>
+      </c>
+      <c r="V9">
+        <v>-2.7368675101624791E-3</v>
+      </c>
+      <c r="W9">
+        <v>-2.6357437824679839E-3</v>
+      </c>
+      <c r="X9">
+        <v>-2.5331444933488672E-3</v>
+      </c>
+      <c r="Y9">
+        <v>-2.4303647012395659E-3</v>
+      </c>
+      <c r="Z9">
+        <v>-2.328264872121049E-3</v>
+      </c>
+      <c r="AA9">
+        <v>-2.2274111198230511E-3</v>
+      </c>
+      <c r="AB9">
+        <v>-2.1281702317776309E-3</v>
+      </c>
+      <c r="AC9">
+        <v>-2.03077409168323E-3</v>
+      </c>
+      <c r="AD9">
+        <v>-1.9353633724153831E-3</v>
+      </c>
+      <c r="AE9">
+        <v>-1.8420171781642781E-3</v>
+      </c>
+      <c r="AF9">
+        <v>-1.750773157912592E-3</v>
+      </c>
+      <c r="AG9">
+        <v>-1.661641154214571E-3</v>
+      </c>
+      <c r="AH9">
+        <v>-1.5746124644866429E-3</v>
+      </c>
+      <c r="AI9">
+        <v>-1.4896661237560581E-3</v>
+      </c>
+      <c r="AJ9">
+        <v>-1.406773164918393E-3</v>
+      </c>
+      <c r="AK9">
+        <v>-1.325899505476119E-3</v>
+      </c>
+      <c r="AL9">
+        <v>-1.247007901393845E-3</v>
+      </c>
+      <c r="AM9">
+        <v>-1.170059267346627E-3</v>
+      </c>
+      <c r="AN9">
+        <v>-1.0950135666478241E-3</v>
+      </c>
+      <c r="AO9">
+        <v>-1.021830408970826E-3</v>
+      </c>
+      <c r="AP9">
+        <v>-9.5046944971342146E-4</v>
+      </c>
+      <c r="AQ9">
+        <v>-8.8089065477512751E-4</v>
+      </c>
+      <c r="AR9">
+        <v>-8.1305447407533965E-4</v>
+      </c>
+      <c r="AS9">
+        <v>-7.4692195326485659E-4</v>
+      </c>
+      <c r="AT9">
+        <v>-6.8245480362785337E-4</v>
+      </c>
+      <c r="AU9">
+        <v>-6.1961544376543218E-4</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.01361102537781972</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0116253195762811</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01164630622877684</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.009684705874858025</v>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1.3611025377819721E-2</v>
+      </c>
+      <c r="B10">
+        <v>1.16253195762811E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.163118261747996E-2</v>
+      </c>
+      <c r="D10">
+        <v>9.6441359280572594E-3</v>
+      </c>
+      <c r="E10">
+        <v>7.2985631997437494E-3</v>
+      </c>
+      <c r="F10">
+        <v>5.2699680681987694E-3</v>
+      </c>
+      <c r="G10">
+        <v>3.7252857388784789E-3</v>
+      </c>
+      <c r="H10">
+        <v>2.6269945824290682E-3</v>
+      </c>
+      <c r="I10">
+        <v>1.8807523559613781E-3</v>
+      </c>
+      <c r="J10">
+        <v>1.3930451041402781E-3</v>
+      </c>
+      <c r="K10">
+        <v>1.0882068340159431E-3</v>
+      </c>
+      <c r="L10">
+        <v>9.0992868670926221E-4</v>
+      </c>
+      <c r="M10">
+        <v>8.1800832927359749E-4</v>
+      </c>
+      <c r="N10">
+        <v>7.8438009889683223E-4</v>
+      </c>
+      <c r="O10">
+        <v>7.8970233240260759E-4</v>
+      </c>
+      <c r="P10">
+        <v>8.2074951368432507E-4</v>
+      </c>
+      <c r="Q10">
+        <v>8.6852387643305932E-4</v>
+      </c>
+      <c r="R10">
+        <v>9.2692579251388719E-4</v>
+      </c>
+      <c r="S10">
+        <v>9.91832214900516E-4</v>
+      </c>
+      <c r="T10">
+        <v>1.060463846093127E-3</v>
+      </c>
+      <c r="U10">
+        <v>1.1309530340397481E-3</v>
+      </c>
+      <c r="V10">
+        <v>1.2020497754203321E-3</v>
+      </c>
+      <c r="W10">
+        <v>1.272922136944537E-3</v>
+      </c>
+      <c r="X10">
+        <v>1.343020966358595E-3</v>
+      </c>
+      <c r="Y10">
+        <v>1.4119882654586721E-3</v>
+      </c>
+      <c r="Z10">
+        <v>1.47959516657983E-3</v>
+      </c>
+      <c r="AA10">
+        <v>1.5456999595645699E-3</v>
+      </c>
+      <c r="AB10">
+        <v>1.6102196903691401E-3</v>
+      </c>
+      <c r="AC10">
+        <v>1.6731109428475301E-3</v>
+      </c>
+      <c r="AD10">
+        <v>1.734356833501808E-3</v>
+      </c>
+      <c r="AE10">
+        <v>1.793958209795237E-3</v>
+      </c>
+      <c r="AF10">
+        <v>1.851927692908113E-3</v>
+      </c>
+      <c r="AG10">
+        <v>1.908285645682743E-3</v>
+      </c>
+      <c r="AH10">
+        <v>1.963057443957555E-3</v>
+      </c>
+      <c r="AI10">
+        <v>2.0162716306049238E-3</v>
+      </c>
+      <c r="AJ10">
+        <v>2.0679586675642798E-3</v>
+      </c>
+      <c r="AK10">
+        <v>2.1181500931548038E-3</v>
+      </c>
+      <c r="AL10">
+        <v>2.1668779541289692E-3</v>
+      </c>
+      <c r="AM10">
+        <v>2.2141744240457501E-3</v>
+      </c>
+      <c r="AN10">
+        <v>2.2600715480259811E-3</v>
+      </c>
+      <c r="AO10">
+        <v>2.3046010732433041E-3</v>
+      </c>
+      <c r="AP10">
+        <v>2.347794337583252E-3</v>
+      </c>
+      <c r="AQ10">
+        <v>2.389682197753454E-3</v>
+      </c>
+      <c r="AR10">
+        <v>2.4302949841432399E-3</v>
+      </c>
+      <c r="AS10">
+        <v>2.4696624738001199E-3</v>
+      </c>
+      <c r="AT10">
+        <v>2.5078138756578568E-3</v>
+      </c>
+      <c r="AU10">
+        <v>2.544777824039262E-3</v>
       </c>
     </row>
   </sheetData>
